--- a/pv_result_0_Black.xlsx
+++ b/pv_result_0_Black.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>CONTENT</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>STAT_COUNT</t>
+  </si>
+  <si>
+    <t>GAP_COUNT</t>
   </si>
   <si>
     <t>F</t>
@@ -416,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,119 +444,137 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.02193122471359753</v>
+        <v>-0.0217242352166219</v>
       </c>
       <c r="D2">
-        <v>0.02185515316814336</v>
+        <v>0.0209608102971772</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.03920444028043867</v>
+        <v>-0.0377275881621865</v>
       </c>
       <c r="D3">
-        <v>0.1653584563420558</v>
+        <v>0.1591558682535571</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.03344459964923507</v>
+        <v>-0.03250807721449266</v>
       </c>
       <c r="D4">
-        <v>0.05659965462524022</v>
+        <v>0.05671596632706842</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.03275887380678148</v>
+        <v>-0.03211765374605107</v>
       </c>
       <c r="D5">
-        <v>0.05505639778214932</v>
+        <v>0.05503542991947624</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.0002037062138743103</v>
+        <v>0.004425301487128636</v>
       </c>
       <c r="D6">
-        <v>0.9885933203999014</v>
+        <v>0.7458590497646975</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
     </row>

--- a/pv_result_0_Black.xlsx
+++ b/pv_result_0_Black.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0217242352166219</v>
+        <v>-0.02193491908706434</v>
       </c>
       <c r="D2">
-        <v>0.0209608102971772</v>
+        <v>0.02182971502021311</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0377275881621865</v>
+        <v>-0.03920538533373893</v>
       </c>
       <c r="D3">
-        <v>0.1591558682535571</v>
+        <v>0.165337772179019</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.03250807721449266</v>
+        <v>-0.03344429659122844</v>
       </c>
       <c r="D4">
-        <v>0.05671596632706842</v>
+        <v>0.05659575711280837</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.03211765374605107</v>
+        <v>-0.03274168547848329</v>
       </c>
       <c r="D5">
-        <v>0.05503542991947624</v>
+        <v>0.05517774524926097</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.004425301487128636</v>
+        <v>0.00020402268436529</v>
       </c>
       <c r="D6">
-        <v>0.7458590497646975</v>
+        <v>0.9885753165755027</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/pv_result_0_Black.xlsx
+++ b/pv_result_0_Black.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.02193491908706434</v>
+        <v>-0.02092708172953228</v>
       </c>
       <c r="D2">
-        <v>0.02182971502021311</v>
+        <v>0.02681953690087294</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.03920538533373893</v>
+        <v>-0.04662347354910729</v>
       </c>
       <c r="D3">
-        <v>0.165337772179019</v>
+        <v>0.07386425152674243</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.03344429659122844</v>
+        <v>-0.03270798484450455</v>
       </c>
       <c r="D4">
-        <v>0.05659575711280837</v>
+        <v>0.05658471469259829</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.03274168547848329</v>
+        <v>-0.03182487581754979</v>
       </c>
       <c r="D5">
-        <v>0.05517774524926097</v>
+        <v>0.05505137049134562</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.00020402268436529</v>
+        <v>0.003796702368565982</v>
       </c>
       <c r="D6">
-        <v>0.9885753165755027</v>
+        <v>0.7821071769364899</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/pv_result_0_Black.xlsx
+++ b/pv_result_0_Black.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.02092708172953228</v>
+        <v>-0.02174456407459079</v>
       </c>
       <c r="D2">
-        <v>0.02681953690087294</v>
+        <v>0.02295424522058346</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.04662347354910729</v>
+        <v>-0.0392272873883146</v>
       </c>
       <c r="D3">
-        <v>0.07386425152674243</v>
+        <v>0.1649676943569946</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.03270798484450455</v>
+        <v>-0.03339352607115664</v>
       </c>
       <c r="D4">
-        <v>0.05658471469259829</v>
+        <v>0.05689248193082315</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.03182487581754979</v>
+        <v>-0.03272554435504618</v>
       </c>
       <c r="D5">
-        <v>0.05505137049134562</v>
+        <v>0.05522027555792171</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.003796702368565982</v>
+        <v>0.0002118810306276694</v>
       </c>
       <c r="D6">
-        <v>0.7821071769364899</v>
+        <v>0.9881315299850579</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/pv_result_0_Black.xlsx
+++ b/pv_result_0_Black.xlsx
@@ -459,7 +459,7 @@
         <v>-0.02174456407459079</v>
       </c>
       <c r="D2">
-        <v>0.02295424522058346</v>
+        <v>0.02295424522058349</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -485,7 +485,7 @@
         <v>-0.0392272873883146</v>
       </c>
       <c r="D3">
-        <v>0.1649676943569946</v>
+        <v>0.1649676943569947</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -511,7 +511,7 @@
         <v>-0.03339352607115664</v>
       </c>
       <c r="D4">
-        <v>0.05689248193082315</v>
+        <v>0.05689248193082324</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">

--- a/pv_result_0_Black.xlsx
+++ b/pv_result_0_Black.xlsx
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
